--- a/biology/Botanique/Banksia_grandis/Banksia_grandis.xlsx
+++ b/biology/Botanique/Banksia_grandis/Banksia_grandis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mangite, Banksia taureau
 Le banksia géant, banksia taureau ou mangite (Bansia grandis), est une espèce d'arbre caractéristique du sud-ouest de l'Australie-Occidentale.
@@ -515,7 +527,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Banksia grandis est très sensible à la pourriture de la racine (Phytophthora cinnamomi) et il est difficile de le faire pousser dans les régions aux étés humides. Il lui faut un sol sablonneux bien drainé.
 			Banksia grandis, développant ses follicules.
@@ -549,7 +563,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Banksia grandis » (voir la liste des auteurs).</t>
         </is>
